--- a/OnBoard/output/trust/bio/Bio_Trust_30.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_30.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q204"/>
+  <dimension ref="A1:Q164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -541,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -588,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -635,7 +635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F6">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -682,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F7">
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -729,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F8">
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -776,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F9">
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -823,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F10">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -870,7 +870,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F11">
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -917,7 +917,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -964,7 +964,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F13">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1011,7 +1011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F14">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1058,7 +1058,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F15">
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1105,7 +1105,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F16">
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1152,7 +1152,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F17">
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1199,7 +1199,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F18">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1246,7 +1246,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F19">
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1293,7 +1293,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F20">
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1340,7 +1340,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F21">
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1387,7 +1387,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F22">
@@ -1417,14 +1417,19 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>217</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L22">
@@ -1434,7 +1439,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1454,7 +1459,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F23">
@@ -1464,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -1481,7 +1486,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1501,7 +1506,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F24">
@@ -1511,14 +1516,19 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>109</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L24">
@@ -1528,7 +1538,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1548,7 +1558,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F25">
@@ -1558,14 +1568,19 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>57</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L25">
@@ -1575,7 +1590,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1595,7 +1610,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F26">
@@ -1605,14 +1620,19 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L26">
@@ -1622,7 +1642,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1642,7 +1662,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F27">
@@ -1652,14 +1672,19 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L27">
@@ -1669,7 +1694,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1689,7 +1714,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F28">
@@ -1699,14 +1724,19 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>139</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L28">
@@ -1716,7 +1746,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1736,7 +1766,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F29">
@@ -1746,14 +1776,19 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>82</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L29">
@@ -1763,7 +1798,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1783,7 +1818,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F30">
@@ -1793,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -1810,7 +1845,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1830,7 +1865,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F31">
@@ -1840,14 +1875,19 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L31">
@@ -1857,7 +1897,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1877,7 +1917,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F32">
@@ -1887,14 +1927,19 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L32">
@@ -1904,7 +1949,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1924,7 +1969,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F33">
@@ -1934,14 +1979,19 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L33">
@@ -1951,7 +2001,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1971,7 +2021,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F34">
@@ -1981,14 +2031,19 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L34">
@@ -1998,7 +2053,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2018,7 +2073,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F35">
@@ -2028,14 +2083,19 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L35">
@@ -2045,7 +2105,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2065,7 +2125,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F36">
@@ -2075,14 +2135,19 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L36">
@@ -2092,7 +2157,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2107,12 +2172,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>NEPRNOR</t>
         </is>
       </c>
       <c r="F37">
@@ -2122,14 +2187,19 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>62</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>MEDNF-2</t>
         </is>
       </c>
       <c r="L37">
@@ -2139,7 +2209,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2154,12 +2224,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F38">
@@ -2169,14 +2239,19 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L38">
@@ -2186,7 +2261,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2201,12 +2276,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F39">
@@ -2216,29 +2291,34 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="I39">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L39">
         <v>0</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2253,12 +2333,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F40">
@@ -2268,19 +2348,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="I40">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L40">
@@ -2290,7 +2370,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2305,12 +2385,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F41">
@@ -2320,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="I41">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2332,7 +2412,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L41">
@@ -2342,7 +2422,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2357,12 +2437,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F42">
@@ -2372,10 +2452,10 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="I42">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2384,7 +2464,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L42">
@@ -2394,7 +2474,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2409,12 +2489,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F43">
@@ -2424,10 +2504,10 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>298</v>
+        <v>27</v>
       </c>
       <c r="I43">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2436,7 +2516,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L43">
@@ -2446,7 +2526,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2461,12 +2541,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F44">
@@ -2476,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="I44">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2488,7 +2568,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>MEDFI-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L44">
@@ -2498,7 +2578,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2513,12 +2593,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F45">
@@ -2528,10 +2608,10 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>403</v>
+        <v>24</v>
       </c>
       <c r="I45">
-        <v>455</v>
+        <v>8</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2540,7 +2620,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L45">
@@ -2550,7 +2630,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2565,12 +2645,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F46">
@@ -2580,14 +2660,19 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="I46">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L46">
@@ -2597,7 +2682,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2612,12 +2697,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F47">
@@ -2627,14 +2712,19 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="I47">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L47">
@@ -2644,7 +2734,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2659,12 +2749,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F48">
@@ -2674,14 +2764,19 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I48">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L48">
@@ -2691,7 +2786,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2706,12 +2801,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F49">
@@ -2721,14 +2816,19 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I49">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L49">
@@ -2738,7 +2838,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2753,12 +2853,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F50">
@@ -2768,14 +2868,19 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="I50">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L50">
@@ -2785,7 +2890,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2800,12 +2905,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F51">
@@ -2815,14 +2920,19 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="I51">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L51">
@@ -2832,7 +2942,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2847,12 +2957,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ILLECOI</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F52">
@@ -2862,14 +2972,19 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I52">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L52">
@@ -2879,7 +2994,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2894,12 +3009,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F53">
@@ -2909,19 +3024,19 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="I53">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>MEDSE-3</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L53">
@@ -2931,7 +3046,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2946,7 +3061,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2961,10 +3076,10 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2973,7 +3088,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L54">
@@ -2983,7 +3098,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2998,7 +3113,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3013,10 +3128,10 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3025,7 +3140,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L55">
@@ -3035,7 +3150,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3050,7 +3165,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3065,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I56">
         <v>8</v>
@@ -3077,7 +3192,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L56">
@@ -3087,7 +3202,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3102,7 +3217,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3129,7 +3244,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L57">
@@ -3139,7 +3254,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3154,7 +3269,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3169,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3181,7 +3296,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L58">
@@ -3191,7 +3306,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3206,7 +3321,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3221,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I59">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3233,7 +3348,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L59">
@@ -3243,7 +3358,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3258,7 +3373,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3273,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I60">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3285,7 +3400,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L60">
@@ -3295,7 +3410,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3310,12 +3425,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F61">
@@ -3325,19 +3440,14 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L61">
@@ -3347,7 +3457,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3362,12 +3472,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F62">
@@ -3377,14 +3487,14 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="I62">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L62">
@@ -3394,7 +3504,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3409,12 +3519,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>ILLECOI</t>
         </is>
       </c>
       <c r="F63">
@@ -3424,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="I63">
         <v>-1</v>
@@ -3441,7 +3551,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3456,12 +3566,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SEPIELE</t>
         </is>
       </c>
       <c r="F64">
@@ -3471,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="I64">
         <v>-1</v>
@@ -3488,7 +3598,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3503,12 +3613,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F65">
@@ -3518,14 +3628,19 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="I65">
-        <v>-1</v>
+        <v>284</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L65">
@@ -3535,7 +3650,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3550,12 +3665,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F66">
@@ -3565,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="I66">
         <v>-1</v>
@@ -3582,7 +3697,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3597,12 +3712,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F67">
@@ -3612,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="I67">
         <v>-1</v>
@@ -3629,7 +3744,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3644,12 +3759,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F68">
@@ -3659,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I68">
         <v>-1</v>
@@ -3676,7 +3791,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3691,12 +3806,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F69">
@@ -3706,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I69">
         <v>-1</v>
@@ -3723,7 +3838,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3738,12 +3853,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F70">
@@ -3753,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="I70">
         <v>-1</v>
@@ -3770,7 +3885,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3785,12 +3900,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TORPMAR</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F71">
@@ -3800,14 +3915,14 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="I71">
-        <v>63</v>
+        <v>-1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L71">
@@ -3817,7 +3932,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3832,12 +3947,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TORPMAR</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F72">
@@ -3847,14 +3962,14 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="I72">
-        <v>94</v>
+        <v>-1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L72">
@@ -3864,7 +3979,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3884,7 +3999,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F73">
@@ -3894,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="I73">
         <v>-1</v>
@@ -3911,7 +4026,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3931,7 +4046,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F74">
@@ -3941,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="I74">
         <v>-1</v>
@@ -3958,7 +4073,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3978,7 +4093,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F75">
@@ -3988,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="I75">
         <v>-1</v>
@@ -4005,7 +4120,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4025,7 +4140,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F76">
@@ -4035,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="I76">
         <v>-1</v>
@@ -4052,7 +4167,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4072,7 +4187,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F77">
@@ -4082,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="I77">
         <v>-1</v>
@@ -4099,7 +4214,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4119,7 +4234,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F78">
@@ -4129,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="I78">
         <v>-1</v>
@@ -4146,7 +4261,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4166,7 +4281,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F79">
@@ -4176,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>268</v>
+        <v>116</v>
       </c>
       <c r="I79">
         <v>-1</v>
@@ -4193,7 +4308,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4213,7 +4328,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F80">
@@ -4223,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>344</v>
+        <v>116</v>
       </c>
       <c r="I80">
         <v>-1</v>
@@ -4240,7 +4355,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4260,7 +4375,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F81">
@@ -4270,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="I81">
         <v>-1</v>
@@ -4287,7 +4402,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4307,7 +4422,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F82">
@@ -4317,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="I82">
         <v>-1</v>
@@ -4334,7 +4449,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4354,7 +4469,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F83">
@@ -4364,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="I83">
         <v>-1</v>
@@ -4381,7 +4496,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4401,7 +4516,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F84">
@@ -4411,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>434</v>
+        <v>119</v>
       </c>
       <c r="I84">
         <v>-1</v>
@@ -4428,7 +4543,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4448,7 +4563,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F85">
@@ -4458,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="I85">
         <v>-1</v>
@@ -4475,7 +4590,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4495,7 +4610,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F86">
@@ -4505,19 +4620,14 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="I86">
-        <v>197</v>
+        <v>-1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L86">
@@ -4527,7 +4637,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4547,7 +4657,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F87">
@@ -4557,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="I87">
         <v>-1</v>
@@ -4574,7 +4684,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4594,7 +4704,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F88">
@@ -4604,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="I88">
         <v>-1</v>
@@ -4621,7 +4731,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4641,7 +4751,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F89">
@@ -4651,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="I89">
         <v>-1</v>
@@ -4668,7 +4778,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4688,7 +4798,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F90">
@@ -4698,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="I90">
         <v>-1</v>
@@ -4715,7 +4825,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4735,7 +4845,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F91">
@@ -4745,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I91">
         <v>-1</v>
@@ -4762,7 +4872,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4792,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="I92">
         <v>-1</v>
@@ -4809,7 +4919,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4829,7 +4939,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F93">
@@ -4839,19 +4949,14 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="I93">
-        <v>86</v>
+        <v>-1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L93">
@@ -4861,7 +4966,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4881,7 +4986,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F94">
@@ -4891,19 +4996,14 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="I94">
-        <v>109</v>
+        <v>-1</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L94">
@@ -4913,7 +5013,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4933,7 +5033,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F95">
@@ -4943,19 +5043,14 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="I95">
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L95">
@@ -4965,7 +5060,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4985,7 +5080,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F96">
@@ -4995,14 +5090,19 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="I96">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L96">
@@ -5012,7 +5112,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5032,7 +5132,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F97">
@@ -5042,14 +5142,19 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I97">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L97">
@@ -5059,7 +5164,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5079,7 +5184,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F98">
@@ -5089,14 +5194,19 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="I98">
-        <v>-1</v>
+        <v>155</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L98">
@@ -5106,7 +5216,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5126,7 +5236,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F99">
@@ -5136,14 +5246,19 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="I99">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L99">
@@ -5153,7 +5268,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5173,7 +5288,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F100">
@@ -5183,14 +5298,19 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="I100">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L100">
@@ -5200,7 +5320,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5220,7 +5340,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F101">
@@ -5230,14 +5350,19 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="I101">
-        <v>-1</v>
+        <v>54</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L101">
@@ -5247,7 +5372,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5267,7 +5392,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F102">
@@ -5277,14 +5402,19 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="I102">
-        <v>-1</v>
+        <v>55</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L102">
@@ -5294,7 +5424,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5314,7 +5444,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F103">
@@ -5324,14 +5454,19 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="I103">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L103">
@@ -5341,7 +5476,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5361,7 +5496,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F104">
@@ -5371,14 +5506,19 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="I104">
-        <v>-1</v>
+        <v>66</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L104">
@@ -5388,7 +5528,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5408,7 +5548,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F105">
@@ -5418,14 +5558,19 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="I105">
-        <v>-1</v>
+        <v>87</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L105">
@@ -5435,7 +5580,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5455,7 +5600,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F106">
@@ -5465,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="I106">
         <v>-1</v>
@@ -5482,7 +5627,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5502,7 +5647,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F107">
@@ -5512,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="I107">
         <v>-1</v>
@@ -5529,7 +5674,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5549,7 +5694,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F108">
@@ -5559,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>142</v>
+        <v>285</v>
       </c>
       <c r="I108">
         <v>-1</v>
@@ -5576,7 +5721,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5596,7 +5741,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F109">
@@ -5606,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>125</v>
+        <v>254</v>
       </c>
       <c r="I109">
         <v>-1</v>
@@ -5623,7 +5768,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5643,7 +5788,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F110">
@@ -5653,24 +5798,34 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>145</v>
+        <v>340</v>
       </c>
       <c r="I110">
-        <v>-1</v>
+        <v>421</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L110">
         <v>0</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>SS8027</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5690,7 +5845,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F111">
@@ -5700,14 +5855,19 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="I111">
         <v>-1</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L111">
@@ -5717,7 +5877,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5737,7 +5897,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F112">
@@ -5747,14 +5907,14 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="I112">
         <v>-1</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L112">
@@ -5764,7 +5924,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5784,7 +5944,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F113">
@@ -5794,14 +5954,14 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="I113">
         <v>-1</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L113">
@@ -5811,7 +5971,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5831,7 +5991,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F114">
@@ -5841,14 +6001,14 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I114">
         <v>-1</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L114">
@@ -5858,7 +6018,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5878,7 +6038,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F115">
@@ -5888,14 +6048,19 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I115">
         <v>-1</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L115">
@@ -5905,7 +6070,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5925,7 +6090,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F116">
@@ -5935,14 +6100,14 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I116">
         <v>-1</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L116">
@@ -5952,7 +6117,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5972,7 +6137,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F117">
@@ -5982,14 +6147,19 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I117">
         <v>-1</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L117">
@@ -5999,7 +6169,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6019,7 +6189,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F118">
@@ -6029,14 +6199,19 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="I118">
         <v>-1</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L118">
@@ -6046,7 +6221,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6066,7 +6241,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F119">
@@ -6076,14 +6251,19 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c r="I119">
         <v>-1</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L119">
@@ -6093,7 +6273,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6113,7 +6293,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F120">
@@ -6123,14 +6303,19 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="I120">
         <v>-1</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L120">
@@ -6140,7 +6325,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6160,7 +6345,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F121">
@@ -6170,14 +6355,14 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="I121">
         <v>-1</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L121">
@@ -6187,7 +6372,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6207,7 +6392,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F122">
@@ -6217,14 +6402,14 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I122">
         <v>-1</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L122">
@@ -6234,7 +6419,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6254,7 +6439,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F123">
@@ -6264,14 +6449,14 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="I123">
         <v>-1</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L123">
@@ -6281,7 +6466,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6301,7 +6486,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F124">
@@ -6311,14 +6496,14 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I124">
         <v>-1</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L124">
@@ -6328,7 +6513,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6348,7 +6533,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F125">
@@ -6358,14 +6543,14 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="I125">
         <v>-1</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L125">
@@ -6375,7 +6560,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6395,7 +6580,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F126">
@@ -6405,14 +6590,19 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I126">
         <v>-1</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L126">
@@ -6422,7 +6612,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6442,7 +6632,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F127">
@@ -6452,14 +6642,14 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="I127">
         <v>-1</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L127">
@@ -6469,7 +6659,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6489,7 +6679,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F128">
@@ -6499,14 +6689,19 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="I128">
         <v>-1</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L128">
@@ -6516,7 +6711,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6536,7 +6731,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F129">
@@ -6546,14 +6741,14 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="I129">
         <v>-1</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L129">
@@ -6563,7 +6758,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6583,7 +6778,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F130">
@@ -6593,14 +6788,14 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I130">
         <v>-1</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L130">
@@ -6610,7 +6805,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6630,7 +6825,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F131">
@@ -6640,14 +6835,19 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="I131">
         <v>-1</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L131">
@@ -6657,7 +6857,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6677,7 +6877,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F132">
@@ -6687,10 +6887,10 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -6709,7 +6909,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6729,7 +6929,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F133">
@@ -6739,10 +6939,10 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -6761,7 +6961,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6781,7 +6981,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F134">
@@ -6791,19 +6991,14 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I134">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L134">
@@ -6813,7 +7008,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6833,7 +7028,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F135">
@@ -6843,10 +7038,10 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I135">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -6855,7 +7050,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L135">
@@ -6865,7 +7060,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6885,7 +7080,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F136">
@@ -6895,10 +7090,10 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I136">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -6917,7 +7112,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6937,7 +7132,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F137">
@@ -6947,10 +7142,10 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I137">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -6959,7 +7154,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L137">
@@ -6969,7 +7164,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6989,7 +7184,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F138">
@@ -6999,10 +7194,10 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I138">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -7011,7 +7206,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L138">
@@ -7021,7 +7216,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7041,7 +7236,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F139">
@@ -7051,19 +7246,14 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I139">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L139">
@@ -7073,7 +7263,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7093,7 +7283,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F140">
@@ -7103,19 +7293,14 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I140">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L140">
@@ -7125,7 +7310,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7145,7 +7330,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F141">
@@ -7158,16 +7343,11 @@
         <v>24</v>
       </c>
       <c r="I141">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L141">
@@ -7177,7 +7357,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7207,7 +7387,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I142">
         <v>-1</v>
@@ -7224,7 +7404,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7254,14 +7434,19 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I143">
         <v>-1</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L143">
@@ -7271,7 +7456,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7301,14 +7486,19 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I144">
         <v>-1</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L144">
@@ -7318,7 +7508,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7348,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I145">
         <v>-1</v>
@@ -7365,7 +7555,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7395,14 +7585,19 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I146">
         <v>-1</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L146">
@@ -7412,7 +7607,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7442,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I147">
         <v>-1</v>
@@ -7459,7 +7654,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7489,7 +7684,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I148">
         <v>-1</v>
@@ -7506,7 +7701,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7536,14 +7731,19 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I149">
         <v>-1</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L149">
@@ -7553,7 +7753,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7583,14 +7783,19 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I150">
         <v>-1</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L150">
@@ -7600,7 +7805,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7630,14 +7835,19 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I151">
         <v>-1</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L151">
@@ -7647,7 +7857,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7677,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I152">
         <v>-1</v>
@@ -7694,7 +7904,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7724,14 +7934,19 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I153">
         <v>-1</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L153">
@@ -7741,7 +7956,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7771,14 +7986,19 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I154">
         <v>-1</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L154">
@@ -7788,7 +8008,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7818,14 +8038,19 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I155">
         <v>-1</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L155">
@@ -7835,7 +8060,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -7865,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I156">
         <v>-1</v>
@@ -7882,7 +8107,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -7912,14 +8137,19 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I157">
         <v>-1</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L157">
@@ -7929,7 +8159,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -7959,14 +8189,14 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I158">
         <v>-1</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L158">
@@ -7976,7 +8206,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8006,14 +8236,14 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I159">
         <v>-1</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L159">
@@ -8023,7 +8253,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8053,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I160">
         <v>-1</v>
@@ -8061,6 +8291,11 @@
       <c r="J160" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L160">
@@ -8070,7 +8305,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8100,14 +8335,14 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I161">
         <v>-1</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L161">
@@ -8117,7 +8352,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8147,14 +8382,14 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I162">
         <v>-1</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L162">
@@ -8164,7 +8399,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8204,6 +8439,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
       <c r="L163">
         <v>0</v>
       </c>
@@ -8211,7 +8451,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8241,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I164">
         <v>-1</v>
@@ -8251,1887 +8491,12 @@
           <t>F</t>
         </is>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
       <c r="L164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="H165">
-        <v>26</v>
-      </c>
-      <c r="I165">
-        <v>-1</v>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166">
-        <v>23</v>
-      </c>
-      <c r="I166">
-        <v>-1</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="H167">
-        <v>25</v>
-      </c>
-      <c r="I167">
-        <v>-1</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F168">
-        <v>1</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="H168">
-        <v>26</v>
-      </c>
-      <c r="I168">
-        <v>-1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-      <c r="H169">
-        <v>25</v>
-      </c>
-      <c r="I169">
-        <v>-1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170">
-        <v>26</v>
-      </c>
-      <c r="I170">
-        <v>-1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-      <c r="H171">
-        <v>24</v>
-      </c>
-      <c r="I171">
-        <v>-1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F172">
-        <v>1</v>
-      </c>
-      <c r="G172">
-        <v>1</v>
-      </c>
-      <c r="H172">
-        <v>27</v>
-      </c>
-      <c r="I172">
-        <v>-1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173">
-        <v>25</v>
-      </c>
-      <c r="I173">
-        <v>-1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>25</v>
-      </c>
-      <c r="I174">
-        <v>-1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-      <c r="H175">
-        <v>24</v>
-      </c>
-      <c r="I175">
-        <v>-1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176">
-        <v>25</v>
-      </c>
-      <c r="I176">
-        <v>-1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-      <c r="G177">
-        <v>1</v>
-      </c>
-      <c r="H177">
-        <v>26</v>
-      </c>
-      <c r="I177">
-        <v>-1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-      <c r="H178">
-        <v>26</v>
-      </c>
-      <c r="I178">
-        <v>-1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="H179">
-        <v>25</v>
-      </c>
-      <c r="I179">
-        <v>-1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-      <c r="H180">
-        <v>24</v>
-      </c>
-      <c r="I180">
-        <v>-1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-      <c r="H181">
-        <v>25</v>
-      </c>
-      <c r="I181">
-        <v>-1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-      <c r="H182">
-        <v>25</v>
-      </c>
-      <c r="I182">
-        <v>-1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-      <c r="H183">
-        <v>25</v>
-      </c>
-      <c r="I183">
-        <v>-1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="G184">
-        <v>1</v>
-      </c>
-      <c r="H184">
-        <v>26</v>
-      </c>
-      <c r="I184">
-        <v>-1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-      <c r="H185">
-        <v>29</v>
-      </c>
-      <c r="I185">
-        <v>-1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F186">
-        <v>1</v>
-      </c>
-      <c r="G186">
-        <v>1</v>
-      </c>
-      <c r="H186">
-        <v>23</v>
-      </c>
-      <c r="I186">
-        <v>-1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F187">
-        <v>1</v>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-      <c r="H187">
-        <v>28</v>
-      </c>
-      <c r="I187">
-        <v>-1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="G188">
-        <v>1</v>
-      </c>
-      <c r="H188">
-        <v>26</v>
-      </c>
-      <c r="I188">
-        <v>-1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-      <c r="H189">
-        <v>25</v>
-      </c>
-      <c r="I189">
-        <v>-1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="H190">
-        <v>28</v>
-      </c>
-      <c r="I190">
-        <v>-1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F191">
-        <v>1</v>
-      </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-      <c r="H191">
-        <v>24</v>
-      </c>
-      <c r="I191">
-        <v>-1</v>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-      <c r="H192">
-        <v>26</v>
-      </c>
-      <c r="I192">
-        <v>-1</v>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-      <c r="H193">
-        <v>23</v>
-      </c>
-      <c r="I193">
-        <v>-1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-      <c r="H194">
-        <v>26</v>
-      </c>
-      <c r="I194">
-        <v>-1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F195">
-        <v>1</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-      <c r="H195">
-        <v>23</v>
-      </c>
-      <c r="I195">
-        <v>-1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F196">
-        <v>1</v>
-      </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-      <c r="H196">
-        <v>26</v>
-      </c>
-      <c r="I196">
-        <v>-1</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F197">
-        <v>1</v>
-      </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-      <c r="H197">
-        <v>27</v>
-      </c>
-      <c r="I197">
-        <v>-1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-      <c r="H198">
-        <v>24</v>
-      </c>
-      <c r="I198">
-        <v>-1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F199">
-        <v>1</v>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-      <c r="H199">
-        <v>24</v>
-      </c>
-      <c r="I199">
-        <v>-1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F200">
-        <v>1</v>
-      </c>
-      <c r="G200">
-        <v>1</v>
-      </c>
-      <c r="H200">
-        <v>23</v>
-      </c>
-      <c r="I200">
-        <v>-1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F201">
-        <v>1</v>
-      </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-      <c r="H201">
-        <v>25</v>
-      </c>
-      <c r="I201">
-        <v>-1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F202">
-        <v>1</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-      <c r="H202">
-        <v>25</v>
-      </c>
-      <c r="I202">
-        <v>-1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F203">
-        <v>1</v>
-      </c>
-      <c r="G203">
-        <v>1</v>
-      </c>
-      <c r="H203">
-        <v>26</v>
-      </c>
-      <c r="I203">
-        <v>-1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F204">
-        <v>1</v>
-      </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-      <c r="H204">
-        <v>22</v>
-      </c>
-      <c r="I204">
-        <v>-1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L204">
         <v>0</v>
       </c>
     </row>
